--- a/bd/PROJETOS_IIRSA_CONCLUIDOS_2000-30_JULHO_2018_-_TESTE_JSON02.xlsx
+++ b/bd/PROJETOS_IIRSA_CONCLUIDOS_2000-30_JULHO_2018_-_TESTE_JSON02.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">codigo</t>
   </si>
   <si>
-    <t xml:space="preserve">NOME PROJETO</t>
+    <t xml:space="preserve">nome_projeto</t>
   </si>
   <si>
     <t xml:space="preserve">grupo</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">etapa</t>
   </si>
   <si>
-    <t xml:space="preserve">investimento_total</t>
+    <t xml:space="preserve">investimento_total_uss</t>
   </si>
   <si>
     <t xml:space="preserve">pais</t>
@@ -2148,6 +2148,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2302,10 +2303,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
